--- a/resources/experiment 2/metrics/R2/upto time/Angina (UPTO).xlsx
+++ b/resources/experiment 2/metrics/R2/upto time/Angina (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-69.02463949302532</v>
+        <v>-69.02463949302539</v>
       </c>
       <c r="C2" t="n">
-        <v>-69.02463949302532</v>
+        <v>-69.02463949302539</v>
       </c>
       <c r="D2" t="n">
-        <v>-69.02463949302532</v>
+        <v>-69.02463949302539</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7769986104381715</v>
+        <v>0.3949679807973629</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7769986104381715</v>
+        <v>0.2797384705511541</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7769986104381715</v>
+        <v>-7.343314286554488</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7951104038374047</v>
+        <v>0.844714538564235</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7951006441951053</v>
+        <v>0.8463794093002422</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7951006441951053</v>
+        <v>-4.179772337997509</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5455281141375647</v>
+        <v>0.2612139991218055</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5455281141375647</v>
+        <v>-0.3146934252327823</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5455281141375647</v>
+        <v>-26.05227733002145</v>
       </c>
     </row>
   </sheetData>
